--- a/P1_SR14.xlsx
+++ b/P1_SR14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Techtorium\Project4-Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839A1D17-185D-44CF-AABE-0460625EF459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C460C56-1725-43D7-9475-2BF9C68EF657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="817" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,31 +178,31 @@
     <t>Open Circa Reality in New Window</t>
   </si>
   <si>
-    <t xml:space="preserve">Test social media links work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Form submit button works and gives alert </t>
-  </si>
-  <si>
     <t>When clicked on submit alert pops up "Form Submitted"</t>
   </si>
   <si>
     <t xml:space="preserve">Clicking on respective tab Home, Contact, Shop and About goes to the correct page. </t>
   </si>
   <si>
-    <t>Test that Nav Bar links work and direct to correct pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test for tool tip when hovered </t>
-  </si>
-  <si>
     <t>Social media links go to correct webpages when clicked on</t>
   </si>
   <si>
-    <t>When hovering over social media links, tooltip appears</t>
+    <t>Pass</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t xml:space="preserve">Test Contact Page Form submit button works and gives alert </t>
+  </si>
+  <si>
+    <t>Test social media links work Shop page</t>
+  </si>
+  <si>
+    <t>Test that Nav Bar on Home Page links work and direct to correct pages - About, Contact, Shop</t>
+  </si>
+  <si>
+    <t>Test for tool tip when hovered on About Us page and goes back Home</t>
+  </si>
+  <si>
+    <t>When hovering over social media links to Home, tooltip appears</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20:D20"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,8 @@
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
@@ -1008,19 +1009,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="4"/>
       <c r="F9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
@@ -1031,19 +1032,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="4"/>
       <c r="F10" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -1054,19 +1055,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -1077,19 +1078,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="4"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
